--- a/صيدليات دكتور مصطفي طلعت_2026-01-01_23-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-01_23-10.xlsx
@@ -80,6 +80,12 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -192,9 +201,6 @@
   </si>
   <si>
     <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t xml:space="preserve">EVAL CARE  GEL</t>
@@ -1347,13 +1353,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -1365,7 +1371,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1373,17 +1379,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>160.38</v>
+        <v>49</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1405,11 +1411,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>49</v>
+        <v>160.38</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1431,11 +1437,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.11</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1451,17 +1457,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1483,11 +1489,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1503,17 +1509,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>91.200000000000003</v>
+        <v>96</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1521,7 +1527,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1529,17 +1535,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1555,13 +1561,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>25.649999999999999</v>
+        <v>91.200000000000003</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1573,7 +1579,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1587,11 +1593,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1599,7 +1605,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1607,17 +1613,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>86.659999999999997</v>
+        <v>25.649999999999999</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1639,7 +1645,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1659,17 +1665,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>63</v>
+        <v>86.659999999999997</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1677,7 +1683,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1691,7 +1697,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1703,7 +1709,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1711,17 +1717,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,7 +1735,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1737,17 +1743,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1763,13 +1769,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1789,17 +1795,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>47.5</v>
+        <v>33</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1807,7 +1813,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1815,13 +1821,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1833,7 +1839,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1841,17 +1847,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>85</v>
+        <v>47.5</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1867,17 +1873,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1885,7 +1891,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1893,17 +1899,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1919,17 +1925,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>2</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1937,7 +1943,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1945,17 +1951,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1963,7 +1969,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1971,17 +1977,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>128.66999999999999</v>
+        <v>110</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,7 +1995,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1997,17 +2003,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2015,7 +2021,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2023,17 +2029,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>22</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2041,7 +2047,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2049,17 +2055,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.33000000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2067,7 +2073,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2075,13 +2081,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>158.40000000000001</v>
+        <v>22</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -2101,17 +2107,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2127,13 +2133,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>100</v>
+        <v>158.40000000000001</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -2153,17 +2159,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2179,13 +2185,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2205,17 +2211,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2231,17 +2237,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>93.329999999999998</v>
+        <v>26</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2257,17 +2263,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>55.670000000000002</v>
+        <v>22</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2275,7 +2281,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2283,17 +2289,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>119</v>
+        <v>93.329999999999998</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>2</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2301,7 +2307,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2309,17 +2315,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>81</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2335,17 +2341,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2361,17 +2367,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2387,17 +2393,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2413,13 +2419,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2431,7 +2437,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2439,13 +2445,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2457,7 +2463,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2465,17 +2471,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2491,13 +2497,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2517,13 +2523,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2543,13 +2549,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2569,17 +2575,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>138.33000000000001</v>
+        <v>86</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2595,13 +2601,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2621,17 +2627,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>67</v>
+        <v>138.33000000000001</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2639,7 +2645,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2647,13 +2653,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2665,7 +2671,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2673,17 +2679,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2699,17 +2705,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2717,7 +2723,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2725,17 +2731,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2743,7 +2749,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2751,17 +2757,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2777,17 +2783,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2795,7 +2801,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2803,17 +2809,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2821,7 +2827,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2829,17 +2835,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2847,7 +2853,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2855,17 +2861,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2873,7 +2879,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2881,13 +2887,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2899,7 +2905,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2907,17 +2913,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2933,17 +2939,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2959,17 +2965,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2985,17 +2991,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3011,17 +3017,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3037,13 +3043,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3063,13 +3069,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3089,17 +3095,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>21.390000000000001</v>
+        <v>45</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3115,17 +3121,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3141,17 +3147,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>90</v>
+        <v>21.390000000000001</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3167,13 +3173,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3185,7 +3191,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3193,17 +3199,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>75.200000000000003</v>
+        <v>90</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3211,7 +3217,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3219,17 +3225,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>6.5999999999999996</v>
+        <v>24</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3237,7 +3243,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3245,17 +3251,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>7.0499999999999998</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3263,7 +3269,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3271,17 +3277,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>24</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3297,17 +3303,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>39.5</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3315,7 +3321,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3323,17 +3329,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3341,7 +3347,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3349,17 +3355,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>29</v>
+        <v>39.5</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3375,17 +3381,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3401,13 +3407,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3427,17 +3433,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3453,17 +3459,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3479,17 +3485,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3505,17 +3511,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3531,17 +3537,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3557,17 +3563,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3583,17 +3589,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>133.86000000000001</v>
+        <v>20</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3609,13 +3615,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3635,17 +3641,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>56</v>
+        <v>133.86000000000001</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.5</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3661,17 +3667,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>27.5</v>
+        <v>53</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3679,7 +3685,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3687,17 +3693,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3705,7 +3711,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3713,17 +3719,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>37</v>
+        <v>27.5</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3739,13 +3745,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3765,17 +3771,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3791,13 +3797,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3823,11 +3829,11 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3843,13 +3849,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3861,7 +3867,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3869,17 +3875,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3887,7 +3893,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3895,17 +3901,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3913,7 +3919,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3921,17 +3927,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3939,7 +3945,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3947,17 +3953,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3973,7 +3979,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -3991,7 +3997,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3999,13 +4005,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -4017,7 +4023,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4025,13 +4031,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -4043,7 +4049,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4051,17 +4057,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4069,7 +4075,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4077,17 +4083,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>47.600000000000001</v>
+        <v>70</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4095,7 +4101,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4103,17 +4109,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4121,7 +4127,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4129,17 +4135,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>3</v>
+        <v>47.600000000000001</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4147,7 +4153,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4155,17 +4161,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4173,7 +4179,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4181,13 +4187,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>24.75</v>
+        <v>3</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4207,13 +4213,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4225,7 +4231,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4233,13 +4239,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>65</v>
+        <v>24.75</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4251,7 +4257,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4259,13 +4265,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4277,7 +4283,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4285,17 +4291,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4303,7 +4309,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4311,13 +4317,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4329,7 +4335,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4337,17 +4343,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>19.800000000000001</v>
+        <v>45</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4355,7 +4361,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4363,13 +4369,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4389,13 +4395,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>27</v>
+        <v>19.800000000000001</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4415,17 +4421,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4441,13 +4447,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
@@ -4467,51 +4473,103 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
-      <c r="K133" s="11">
-        <v>7787.9399999999996</v>
-      </c>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
-      <c t="s" r="A134" s="12">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c t="s" r="B133" s="7">
+        <v>177</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c t="s" r="H133" s="8">
+        <v>35</v>
+      </c>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9">
+        <v>20</v>
+      </c>
+      <c r="M133" s="9"/>
+      <c r="N133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="24.75" customHeight="1">
+      <c r="A134" s="6">
+        <v>131</v>
+      </c>
+      <c t="s" r="B134" s="7">
         <v>178</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c t="s" r="F134" s="13">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c t="s" r="H134" s="8">
         <v>179</v>
       </c>
-      <c r="G134" s="13"/>
-      <c r="H134" s="14"/>
-      <c t="s" r="I134" s="15">
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9">
+        <v>30</v>
+      </c>
+      <c r="M134" s="9"/>
+      <c r="N134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" ht="26.25" customHeight="1">
+      <c r="K135" s="11">
+        <v>7930.9399999999996</v>
+      </c>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="12">
         <v>180</v>
       </c>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c t="s" r="F136" s="13">
+        <v>181</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
+      <c t="s" r="I136" s="15">
+        <v>182</v>
+      </c>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="398">
+  <mergeCells count="404">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4906,10 +4964,16 @@
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
-    <mergeCell ref="K133:N133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="K135:N135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="I136:N136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
